--- a/suppxls/Scen_CumulCO2eq-09-2050.xlsx
+++ b/suppxls/Scen_CumulCO2eq-09-2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D28AF55-887D-4CF1-942E-1310948C0414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3482C-D5FD-467A-AEF8-975658F46C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2835" yWindow="-20160" windowWidth="34560" windowHeight="19335" xr2:uid="{0AC21F4E-E9F6-4B4C-837E-642D3D11AAD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AC21F4E-E9F6-4B4C-837E-642D3D11AAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDGET" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -66,21 +66,6 @@
     <t>ENERGY AND IPPU</t>
   </si>
   <si>
-    <t>Growth  /  Year</t>
-  </si>
-  <si>
-    <t>Ref Growth</t>
-  </si>
-  <si>
-    <t>2050CumulativeLimit</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>NZ10_2050A_99</t>
-  </si>
-  <si>
     <t>2021-2050</t>
   </si>
   <si>
@@ -127,6 +112,9 @@
   </si>
   <si>
     <t>UC_RHSRT~2018</t>
+  </si>
+  <si>
+    <t>From Tableau: sheet CumulCO2eq2050 with just AFOLU+Waste</t>
   </si>
 </sst>
 </file>
@@ -593,10 +581,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J5" sqref="J5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,14 +599,14 @@
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,8 +619,14 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2085000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -640,66 +634,125 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <f>'cumulative budgets for SATIM'!F13*1000</f>
-        <v>7015570</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <f>J6</f>
+        <v>6915000</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <f>J3</f>
+        <v>2085000</v>
+      </c>
+      <c r="J5" s="3">
+        <f>H5*1000000-I5</f>
+        <v>5915000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3">
+        <f>I5</f>
+        <v>2085000</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J8" si="0">H6*1000000-I6</f>
+        <v>6915000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <f>I6</f>
+        <v>2085000</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>7915000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3">
+        <f>I7</f>
+        <v>2085000</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>8915000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -708,7 +761,7 @@
         <v>2018</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -724,21 +777,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>2050</v>
+        <v>2029</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>100</v>
@@ -754,21 +807,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -791,515 +844,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D842492-0D96-4BCC-A5E8-CB54304225CC}">
-  <dimension ref="B2:AK15"/>
+  <dimension ref="C10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>2017</v>
-      </c>
-      <c r="E5">
-        <v>2018</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
-      <c r="G5">
-        <v>2020</v>
-      </c>
-      <c r="H5">
-        <v>2021</v>
-      </c>
-      <c r="I5">
-        <v>2022</v>
-      </c>
-      <c r="J5">
-        <v>2023</v>
-      </c>
-      <c r="K5">
-        <v>2024</v>
-      </c>
-      <c r="L5">
-        <v>2025</v>
-      </c>
-      <c r="M5">
-        <v>2026</v>
-      </c>
-      <c r="N5">
-        <v>2027</v>
-      </c>
-      <c r="O5">
-        <v>2028</v>
-      </c>
-      <c r="P5">
-        <v>2029</v>
-      </c>
-      <c r="Q5">
-        <v>2030</v>
-      </c>
-      <c r="R5">
-        <v>2031</v>
-      </c>
-      <c r="S5">
-        <v>2032</v>
-      </c>
-      <c r="T5">
-        <v>2033</v>
-      </c>
-      <c r="U5">
-        <v>2034</v>
-      </c>
-      <c r="V5">
-        <v>2035</v>
-      </c>
-      <c r="W5">
-        <v>2036</v>
-      </c>
-      <c r="X5">
-        <v>2037</v>
-      </c>
-      <c r="Y5">
-        <v>2038</v>
-      </c>
-      <c r="Z5">
-        <v>2039</v>
-      </c>
-      <c r="AA5">
-        <v>2040</v>
-      </c>
-      <c r="AB5">
-        <v>2041</v>
-      </c>
-      <c r="AC5">
-        <v>2042</v>
-      </c>
-      <c r="AD5">
-        <v>2043</v>
-      </c>
-      <c r="AE5">
-        <v>2044</v>
-      </c>
-      <c r="AF5">
-        <v>2045</v>
-      </c>
-      <c r="AG5">
-        <v>2046</v>
-      </c>
-      <c r="AH5">
-        <v>2047</v>
-      </c>
-      <c r="AI5">
-        <v>2048</v>
-      </c>
-      <c r="AJ5">
-        <v>2049</v>
-      </c>
-      <c r="AK5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>52.46</v>
-      </c>
-      <c r="E6">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="F6">
-        <v>71.63</v>
-      </c>
-      <c r="G6">
-        <v>67.27</v>
-      </c>
-      <c r="H6">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="I6">
-        <v>67.34</v>
-      </c>
-      <c r="J6">
-        <v>66.23</v>
-      </c>
-      <c r="K6">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="L6">
-        <v>64.69</v>
-      </c>
-      <c r="M6">
-        <v>64.08</v>
-      </c>
-      <c r="N6">
-        <v>63.56</v>
-      </c>
-      <c r="O6">
-        <v>63.04</v>
-      </c>
-      <c r="P6">
-        <v>62.8</v>
-      </c>
-      <c r="Q6">
-        <v>62.73</v>
-      </c>
-      <c r="R6">
-        <v>62.75</v>
-      </c>
-      <c r="S6">
-        <v>62.88</v>
-      </c>
-      <c r="T6">
-        <v>63.08</v>
-      </c>
-      <c r="U6">
-        <v>63.42</v>
-      </c>
-      <c r="V6">
-        <v>63.82</v>
-      </c>
-      <c r="W6">
-        <v>64.28</v>
-      </c>
-      <c r="X6">
-        <v>64.790000000000006</v>
-      </c>
-      <c r="Y6">
-        <v>65.34</v>
-      </c>
-      <c r="Z6">
-        <v>65.92</v>
-      </c>
-      <c r="AA6">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="AB6">
-        <v>66.97</v>
-      </c>
-      <c r="AC6">
-        <v>67.430000000000007</v>
-      </c>
-      <c r="AD6">
-        <v>67.91</v>
-      </c>
-      <c r="AE6">
-        <v>68.44</v>
-      </c>
-      <c r="AF6">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="AG6">
-        <v>69.62</v>
-      </c>
-      <c r="AH6">
-        <v>70.16</v>
-      </c>
-      <c r="AI6">
-        <v>70.75</v>
-      </c>
-      <c r="AJ6">
-        <v>71.44</v>
-      </c>
-      <c r="AK6">
-        <v>72.209999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <f>SUM(H6:AK6)</f>
-        <v>1984.4300000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <f>F10</f>
-        <v>1984.4300000000005</v>
-      </c>
-      <c r="F12" s="3">
-        <f>D12*1000-E12</f>
-        <v>6015.57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <f>E12</f>
-        <v>1984.4300000000005</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13:F15" si="0">D13*1000-E13</f>
-        <v>7015.57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <f>E13</f>
-        <v>1984.4300000000005</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>8015.57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="3">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3">
-        <f>E14</f>
-        <v>1984.4300000000005</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>9015.57</v>
       </c>
     </row>
   </sheetData>
